--- a/InputData/bldgs/EoDSDwSP/Elasticity of Dist Solar Deployment wrt Subsidy Perc.xlsx
+++ b/InputData/bldgs/EoDSDwSP/Elasticity of Dist Solar Deployment wrt Subsidy Perc.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\EoDSDwSP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12090"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Calculations" sheetId="3" r:id="rId2"/>
     <sheet name="EoDSDwSP" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Source:</t>
   </si>
@@ -51,9 +56,6 @@
     <t>EoDSDwSP Elasticity of Distributed Solar Deployment wrt Subsidy Perc</t>
   </si>
   <si>
-    <t>Elasticity</t>
-  </si>
-  <si>
     <t>of system cost</t>
   </si>
   <si>
@@ -70,12 +72,24 @@
   </si>
   <si>
     <t>Rural Residential</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Elasticities intended to reflect change in deployment with changing</t>
+  </si>
+  <si>
+    <t>distributed solar price (through subsidies).</t>
+  </si>
+  <si>
+    <t>Elasticity (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -147,6 +161,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -194,7 +211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,7 +246,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,9 +455,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -478,7 +497,19 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -505,13 +536,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -554,7 +585,7 @@
         <v>0.3</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -593,7 +624,9 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -602,12 +635,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6">
         <f>Calculations!B9</f>
@@ -616,7 +649,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6">
         <f>B2</f>
